--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="63">
   <si>
     <t>编号</t>
   </si>
@@ -137,28 +137,58 @@
     <t>is_true</t>
   </si>
   <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t>用户成功登录</t>
+  </si>
+  <si>
     <t>post</t>
   </si>
   <si>
     <t>prod-api/client/login</t>
   </si>
   <si>
-    <t>lang=zh_CN</t>
+    <t>{"lang":"zh_CN"}</t>
   </si>
   <si>
     <t>{"username":"raffaele87micciche@gmail.com","password":"admin123"}</t>
   </si>
   <si>
+    <t>$.msg</t>
+  </si>
+  <si>
     <t>succeeds</t>
   </si>
   <si>
+    <t>select user_name from sys_user where user_name="raffaele87micciche@gmail.com"</t>
+  </si>
+  <si>
+    <t>raffaele87micciche@gmail.com</t>
+  </si>
+  <si>
+    <t>{"TOKEN":"$.token"}</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+  </si>
+  <si>
+    <t>查询成功</t>
+  </si>
+  <si>
+    <t>登录状态查询用户信息</t>
+  </si>
+  <si>
     <t>get</t>
   </si>
   <si>
     <t>prod-api/system/user/getUserInfo</t>
   </si>
   <si>
-    <t>succeedss</t>
+    <t>{"Authorization":"{{TOKEN}}"}</t>
   </si>
   <si>
     <t>prod-api/system/account/getUerAccountInfo</t>
@@ -176,9 +206,6 @@
     <t>prod-api/system/package/getAiuFullPackageList</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>prod-api/system/account/getAccountReward</t>
   </si>
   <si>
@@ -188,7 +215,7 @@
     <t>prod-api/system/account/getAccountAmountDetail</t>
   </si>
   <si>
-    <t>lang=zh_CN&amp;logType=60</t>
+    <t>{"lang":"zh_CN","logType=60"}</t>
   </si>
 </sst>
 </file>
@@ -847,7 +874,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -870,9 +897,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1405,21 +1429,24 @@
   <sheetPr/>
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="5" width="9.23076923076923" style="1"/>
+    <col min="1" max="3" width="9.23076923076923" style="1"/>
+    <col min="4" max="4" width="21.8653846153846" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.23076923076923" style="1"/>
     <col min="6" max="6" width="56.4038461538462" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.23076923076923" style="1"/>
+    <col min="7" max="7" width="29.8269230769231" style="1" customWidth="1"/>
     <col min="8" max="8" width="35.6634615384615" style="1" customWidth="1"/>
     <col min="9" max="9" width="71.5192307692308" style="1" customWidth="1"/>
     <col min="10" max="10" width="66.6923076923077" style="1" customWidth="1"/>
-    <col min="11" max="13" width="9.23076923076923" style="1"/>
-    <col min="14" max="14" width="24.9423076923077" style="1" customWidth="1"/>
-    <col min="15" max="15" width="26.8846153846154" style="1" customWidth="1"/>
+    <col min="11" max="12" width="9.23076923076923" style="1"/>
+    <col min="13" max="13" width="30.5961538461538" style="1" customWidth="1"/>
+    <col min="14" max="14" width="106.567307692308" style="1" customWidth="1"/>
+    <col min="15" max="15" width="29.9615384615385" style="1" customWidth="1"/>
     <col min="16" max="16" width="21.0384615384615" style="1" customWidth="1"/>
     <col min="17" max="17" width="17.4230769230769" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9.23076923076923" style="1"/>
@@ -1462,7 +1489,7 @@
       <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -1518,7 +1545,7 @@
       <c r="L2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -1538,84 +1565,120 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="E3" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="R3" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="E4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="R4" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -1624,26 +1687,32 @@
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -1652,26 +1721,32 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1680,26 +1755,32 @@
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -1708,26 +1789,32 @@
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1736,28 +1823,32 @@
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -1766,26 +1857,32 @@
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -1794,19 +1891,25 @@
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1820,19 +1923,25 @@
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="6" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1846,19 +1955,25 @@
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>53</v>
+      <c r="H14" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1872,19 +1987,25 @@
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>53</v>
+      <c r="H15" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1898,19 +2019,25 @@
       <c r="R15" s="3"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>53</v>
+      <c r="H16" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -1924,19 +2051,25 @@
       <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>53</v>
+      <c r="H17" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1950,19 +2083,25 @@
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
-        <v>53</v>
+      <c r="H18" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -1977,18 +2116,22 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
-        <v>53</v>
+      <c r="H19" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -2004,6 +2147,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" display="prod-api/client/login" tooltip="http://212.50.233.129:81/prod-api/client/loginN"/>
+    <hyperlink ref="O3" r:id="rId2" display="raffaele87micciche@gmail.com" tooltip="mailto:raffaele87micciche@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14760"/>
+    <workbookView windowHeight="14700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="83">
   <si>
     <t>编号</t>
   </si>
@@ -155,7 +155,7 @@
     <t>{"lang":"zh_CN"}</t>
   </si>
   <si>
-    <t>{"username":"raffaele87micciche@gmail.com","password":"admin123"}</t>
+    <t>{"username":"vanyaadar@gmail.com","password":"admin123"}</t>
   </si>
   <si>
     <t>$.msg</t>
@@ -164,10 +164,10 @@
     <t>succeeds</t>
   </si>
   <si>
-    <t>select user_name from sys_user where user_name="raffaele87micciche@gmail.com"</t>
-  </si>
-  <si>
-    <t>raffaele87micciche@gmail.com</t>
+    <t>select user_name from sys_user where user_name="vanyaadar@gmail.com"</t>
+  </si>
+  <si>
+    <t>vanyaadar@gmail.com</t>
   </si>
   <si>
     <t>{"TOKEN":"$.token"}</t>
@@ -191,19 +191,79 @@
     <t>{"Authorization":"{{TOKEN}}"}</t>
   </si>
   <si>
+    <t>查询用户余额</t>
+  </si>
+  <si>
     <t>prod-api/system/account/getUerAccountInfo</t>
   </si>
   <si>
+    <t>AI收益</t>
+  </si>
+  <si>
+    <t>查询今日AI收益</t>
+  </si>
+  <si>
     <t>prod-api/system/aiuEarnMoney/getAiEarnMoneyInfo</t>
   </si>
   <si>
+    <t>totalEarnToday</t>
+  </si>
+  <si>
+    <t>查询往期AI收益</t>
+  </si>
+  <si>
+    <t>prod-api/system/aiuEarnMoney/getAiEarnMoneyList</t>
+  </si>
+  <si>
+    <t>createBy</t>
+  </si>
+  <si>
+    <t>公告</t>
+  </si>
+  <si>
+    <t>查询公告</t>
+  </si>
+  <si>
     <t>prod-api/system/notice/getNoticeList</t>
   </si>
   <si>
+    <t>查询货币</t>
+  </si>
+  <si>
     <t>prod-api/system/aiurecharg/getTickersPrice</t>
   </si>
   <si>
+    <t>SOLUSDT</t>
+  </si>
+  <si>
+    <t>查询套餐列表</t>
+  </si>
+  <si>
     <t>prod-api/system/package/getAiuFullPackageList</t>
+  </si>
+  <si>
+    <t>"id":3</t>
+  </si>
+  <si>
+    <t>用户钱包</t>
+  </si>
+  <si>
+    <t>查询资产日志</t>
+  </si>
+  <si>
+    <t>prod-api/system/log/getAiuInvestmentLog</t>
+  </si>
+  <si>
+    <t>{"lang":"zh_CN","pageSize":"30","pageNum":"1","reasonable":"false"}</t>
+  </si>
+  <si>
+    <t>AIU</t>
+  </si>
+  <si>
+    <t>查询理财日志</t>
+  </si>
+  <si>
+    <t>prod-api/system/log/getAiuFinancingLog</t>
   </si>
   <si>
     <t>prod-api/system/account/getAccountReward</t>
@@ -874,7 +934,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -893,7 +953,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1427,10 +1496,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1439,8 +1508,8 @@
     <col min="4" max="4" width="21.8653846153846" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.23076923076923" style="1"/>
     <col min="6" max="6" width="56.4038461538462" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.8269230769231" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.6634615384615" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.8846153846154" style="1" customWidth="1"/>
+    <col min="8" max="8" width="45.1153846153846" style="1" customWidth="1"/>
     <col min="9" max="9" width="71.5192307692308" style="1" customWidth="1"/>
     <col min="10" max="10" width="66.6923076923077" style="1" customWidth="1"/>
     <col min="11" max="12" width="9.23076923076923" style="1"/>
@@ -1595,7 +1664,7 @@
       <c r="L3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="11" t="s">
         <v>44</v>
       </c>
       <c r="N3" s="3" t="s">
@@ -1640,7 +1709,9 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="M4" s="3" t="s">
         <v>44</v>
       </c>
@@ -1662,21 +1733,27 @@
       <c r="C5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="E5" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="H5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="M5" s="3" t="s">
         <v>44</v>
       </c>
@@ -1684,26 +1761,32 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="R5" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E6" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="H6" s="3" t="s">
         <v>41</v>
       </c>
@@ -1712,32 +1795,38 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="R6" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="E7" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="H7" s="3" t="s">
         <v>41</v>
       </c>
@@ -1746,39 +1835,47 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="R7" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="E8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="3"/>
+      <c r="F8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="H8" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="M8" s="3" t="s">
         <v>44</v>
       </c>
@@ -1786,7 +1883,9 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="R8" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="3">
@@ -1798,14 +1897,18 @@
       <c r="C9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="3"/>
+      <c r="F9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="H9" s="3" t="s">
         <v>41</v>
       </c>
@@ -1814,13 +1917,15 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="R9" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="3">
@@ -1832,14 +1937,18 @@
       <c r="C10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="E10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="3"/>
+      <c r="F10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>41</v>
       </c>
@@ -1848,83 +1957,99 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="R10" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" ht="34" spans="1:18">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="E11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>41</v>
+      <c r="F11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="R11" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" ht="34" spans="1:18">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
-        <v>41</v>
+      <c r="F12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="M12" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="R12" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>48</v>
@@ -1936,18 +2061,20 @@
       <c r="E13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6" t="s">
-        <v>62</v>
+      <c r="F13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -1956,7 +2083,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>48</v>
@@ -1968,18 +2095,20 @@
       <c r="E14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>61</v>
+      <c r="F14" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="6" t="s">
-        <v>62</v>
+      <c r="H14" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -1988,7 +2117,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>48</v>
@@ -2000,12 +2129,12 @@
       <c r="E15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="6" t="s">
-        <v>62</v>
+      <c r="F15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2020,7 +2149,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>48</v>
@@ -2032,12 +2161,12 @@
       <c r="E16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="6" t="s">
-        <v>62</v>
+      <c r="F16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -2052,7 +2181,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>48</v>
@@ -2065,11 +2194,11 @@
         <v>51</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="6" t="s">
-        <v>62</v>
+      <c r="H17" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -2084,7 +2213,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>48</v>
@@ -2097,11 +2226,11 @@
         <v>51</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="6" t="s">
-        <v>62</v>
+      <c r="H18" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -2115,7 +2244,9 @@
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3">
+        <v>15</v>
+      </c>
       <c r="B19" s="3" t="s">
         <v>48</v>
       </c>
@@ -2127,11 +2258,11 @@
         <v>51</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="6" t="s">
-        <v>62</v>
+      <c r="H19" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -2144,10 +2275,106 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
     </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="3">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="3">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="3">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" display="prod-api/client/login" tooltip="http://212.50.233.129:81/prod-api/client/loginN"/>
-    <hyperlink ref="O3" r:id="rId2" display="raffaele87micciche@gmail.com" tooltip="mailto:raffaele87micciche@gmail.com"/>
+    <hyperlink ref="O3" r:id="rId2" display="vanyaadar@gmail.com" tooltip="mailto:vanyaadar@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
